--- a/クリックポスト発送情報/20200915101654/英子日本发货表格9.14.xlsx
+++ b/クリックポスト発送情報/20200915101654/英子日本发货表格9.14.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,22 @@
   <si>
     <t xml:space="preserve"> 
 09059713302</t>
+  </si>
+  <si>
+    <t>628605072395</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628605072384</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628605072373</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628605072362</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -125,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -297,7 +313,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +325,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -840,7 +856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K5"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1218,7 +1234,9 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="25" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="23" t="s">
@@ -1243,7 +1261,9 @@
       <c r="I3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="25" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="24"/>
@@ -1258,7 +1278,9 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="K4" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -1283,7 +1305,9 @@
       <c r="I5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="25" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="7" spans="1:181" ht="121.95" customHeight="1"/>
